--- a/exports/lsmean_files/LP HOLL 6 - LSMeans.xlsx
+++ b/exports/lsmean_files/LP HOLL 6 - LSMeans.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Genotype</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t xml:space="preserve">Seed weight (grams)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sq</t>
   </si>
   <si>
     <t xml:space="preserve">Test weight</t>
@@ -481,31 +484,34 @@
     <col min="6" max="6" width="19.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="13.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="19.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="11.71" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="13.71" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="15.71" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="7.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="13.71" hidden="0" customWidth="1"/>
-    <col min="14" max="14" width="15.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="19.71" hidden="0" customWidth="1"/>
-    <col min="16" max="16" width="13.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="19.71" hidden="0" customWidth="1"/>
-    <col min="18" max="18" width="11.71" hidden="0" customWidth="1"/>
-    <col min="19" max="19" width="13.71" hidden="0" customWidth="1"/>
-    <col min="20" max="20" width="15.71" hidden="0" customWidth="1"/>
-    <col min="21" max="21" width="7.71" hidden="0" customWidth="1"/>
-    <col min="22" max="22" width="13.71" hidden="0" customWidth="1"/>
-    <col min="23" max="23" width="15.71" hidden="0" customWidth="1"/>
-    <col min="24" max="24" width="19.71" hidden="0" customWidth="1"/>
-    <col min="25" max="25" width="13.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="5.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="11.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="13.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="15.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="7.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="13.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="15.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="19.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="13.71" hidden="0" customWidth="1"/>
+    <col min="18" max="18" width="19.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="5.71" hidden="0" customWidth="1"/>
+    <col min="20" max="20" width="11.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="13.71" hidden="0" customWidth="1"/>
+    <col min="22" max="22" width="15.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="7.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="13.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="15.71" hidden="0" customWidth="1"/>
     <col min="26" max="26" width="19.71" hidden="0" customWidth="1"/>
-    <col min="27" max="27" width="11.71" hidden="0" customWidth="1"/>
-    <col min="28" max="28" width="13.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="13.71" hidden="0" customWidth="1"/>
+    <col min="28" max="28" width="19.71" hidden="0" customWidth="1"/>
+    <col min="29" max="29" width="5.71" hidden="0" customWidth="1"/>
+    <col min="30" max="30" width="11.71" hidden="0" customWidth="1"/>
+    <col min="31" max="31" width="13.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -515,10 +521,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -526,17 +532,20 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -570,63 +579,72 @@
         <v>9</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="U3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>24</v>
@@ -650,69 +668,78 @@
         <v>14</v>
       </c>
       <c r="I4" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J4" s="1" t="n">
         <v>54.1</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="K4" s="1" t="n">
         <v>1836.2</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="L4" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="L4" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="M4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1" t="n">
         <v>16.5</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>21.9</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="P4" s="1" t="n">
         <v>42.2</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="Q4" s="1" t="n">
         <v>64.1</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="R4" s="1" t="n">
         <v>14.5</v>
       </c>
-      <c r="R4" s="1" t="n">
+      <c r="S4" s="1" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T4" s="1" t="n">
         <v>55.9</v>
       </c>
-      <c r="S4" s="1" t="n">
+      <c r="U4" s="1" t="n">
         <v>2293.7</v>
       </c>
-      <c r="T4" s="1" t="n">
+      <c r="V4" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="U4" s="1" t="n">
+      <c r="W4" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="V4" s="1" t="n">
+      <c r="X4" s="1" t="n">
         <v>18.2</v>
       </c>
-      <c r="W4" s="1" t="n">
+      <c r="Y4" s="1" t="n">
         <v>22.8</v>
       </c>
-      <c r="X4" s="1" t="n">
+      <c r="Z4" s="1" t="n">
         <v>40.3</v>
       </c>
-      <c r="Y4" s="1" t="n">
+      <c r="AA4" s="1" t="n">
         <v>63.1</v>
       </c>
-      <c r="Z4" s="1" t="n">
+      <c r="AB4" s="1" t="n">
         <v>14.3</v>
       </c>
-      <c r="AA4" s="1" t="n">
+      <c r="AC4" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD4" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="AB4" s="1" t="n">
+      <c r="AE4" s="1" t="n">
         <v>2064.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>29</v>
@@ -736,69 +763,78 @@
         <v>11.6</v>
       </c>
       <c r="I5" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J5" s="1" t="n">
         <v>55.4</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="K5" s="1" t="n">
         <v>2131.7</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="L5" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="M5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="N5" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="N5" s="1" t="n">
+      <c r="O5" s="1" t="n">
         <v>21.1</v>
       </c>
-      <c r="O5" s="1" t="n">
+      <c r="P5" s="1" t="n">
         <v>44.2</v>
       </c>
-      <c r="P5" s="1" t="n">
+      <c r="Q5" s="1" t="n">
         <v>65.4</v>
       </c>
-      <c r="Q5" s="1" t="n">
+      <c r="R5" s="1" t="n">
         <v>10.7</v>
       </c>
-      <c r="R5" s="1" t="n">
+      <c r="S5" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T5" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="S5" s="1" t="n">
+      <c r="U5" s="1" t="n">
         <v>1634.7</v>
       </c>
-      <c r="T5" s="1" t="n">
+      <c r="V5" s="1" t="n">
         <v>33.5</v>
       </c>
-      <c r="U5" s="1" t="n">
+      <c r="W5" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="V5" s="1" t="n">
+      <c r="X5" s="1" t="n">
         <v>19.7</v>
       </c>
-      <c r="W5" s="1" t="n">
+      <c r="Y5" s="1" t="n">
         <v>21.5</v>
       </c>
-      <c r="X5" s="1" t="n">
+      <c r="Z5" s="1" t="n">
         <v>42.7</v>
       </c>
-      <c r="Y5" s="1" t="n">
+      <c r="AA5" s="1" t="n">
         <v>64.1</v>
       </c>
-      <c r="Z5" s="1" t="n">
+      <c r="AB5" s="1" t="n">
         <v>11.1</v>
       </c>
-      <c r="AA5" s="1" t="n">
+      <c r="AC5" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD5" s="1" t="n">
         <v>55.8</v>
       </c>
-      <c r="AB5" s="1" t="n">
+      <c r="AE5" s="1" t="n">
         <v>1883.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>32</v>
@@ -822,69 +858,78 @@
         <v>13.1</v>
       </c>
       <c r="I6" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="1" t="n">
         <v>55.7</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="K6" s="1" t="n">
         <v>1635.5</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="L6" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="M6" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="N6" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="N6" s="1" t="n">
+      <c r="O6" s="1" t="n">
         <v>20.9</v>
       </c>
-      <c r="O6" s="1" t="n">
+      <c r="P6" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="P6" s="1" t="n">
+      <c r="Q6" s="1" t="n">
         <v>64.9</v>
       </c>
-      <c r="Q6" s="1" t="n">
+      <c r="R6" s="1" t="n">
         <v>13.1</v>
       </c>
-      <c r="R6" s="1" t="n">
+      <c r="S6" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" s="1" t="n">
         <v>57.4</v>
       </c>
-      <c r="S6" s="1" t="n">
+      <c r="U6" s="1" t="n">
         <v>2023.6</v>
       </c>
-      <c r="T6" s="1" t="n">
+      <c r="V6" s="1" t="n">
         <v>31.5</v>
       </c>
-      <c r="U6" s="1" t="n">
+      <c r="W6" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="V6" s="1" t="n">
+      <c r="X6" s="1" t="n">
         <v>15.5</v>
       </c>
-      <c r="W6" s="1" t="n">
+      <c r="Y6" s="1" t="n">
         <v>21.3</v>
       </c>
-      <c r="X6" s="1" t="n">
+      <c r="Z6" s="1" t="n">
         <v>42.4</v>
       </c>
-      <c r="Y6" s="1" t="n">
+      <c r="AA6" s="1" t="n">
         <v>63.7</v>
       </c>
-      <c r="Z6" s="1" t="n">
+      <c r="AB6" s="1" t="n">
         <v>13.1</v>
       </c>
-      <c r="AA6" s="1" t="n">
+      <c r="AC6" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD6" s="1" t="n">
         <v>56.5</v>
       </c>
-      <c r="AB6" s="1" t="n">
+      <c r="AE6" s="1" t="n">
         <v>1829.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>31</v>
@@ -908,69 +953,78 @@
         <v>12.7</v>
       </c>
       <c r="I7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J7" s="1" t="n">
         <v>55.4</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="K7" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="L7" s="1" t="n">
         <v>35.5</v>
       </c>
-      <c r="L7" s="1" t="n">
+      <c r="M7" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="N7" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="N7" s="1" t="n">
+      <c r="O7" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="O7" s="1" t="n">
+      <c r="P7" s="1" t="n">
         <v>45.4</v>
       </c>
-      <c r="P7" s="1" t="n">
+      <c r="Q7" s="1" t="n">
         <v>66.3</v>
       </c>
-      <c r="Q7" s="1" t="n">
+      <c r="R7" s="1" t="n">
         <v>11.7</v>
       </c>
-      <c r="R7" s="1" t="n">
+      <c r="S7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="S7" s="1" t="n">
+      <c r="U7" s="1" t="n">
         <v>1859.5</v>
       </c>
-      <c r="T7" s="1" t="n">
+      <c r="V7" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="U7" s="1" t="n">
+      <c r="W7" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="V7" s="1" t="n">
+      <c r="X7" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="W7" s="1" t="n">
+      <c r="Y7" s="1" t="n">
         <v>21.9</v>
       </c>
-      <c r="X7" s="1" t="n">
+      <c r="Z7" s="1" t="n">
         <v>43.3</v>
       </c>
-      <c r="Y7" s="1" t="n">
+      <c r="AA7" s="1" t="n">
         <v>65.2</v>
       </c>
-      <c r="Z7" s="1" t="n">
+      <c r="AB7" s="1" t="n">
         <v>12.2</v>
       </c>
-      <c r="AA7" s="1" t="n">
+      <c r="AC7" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD7" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="AB7" s="1" t="n">
+      <c r="AE7" s="1" t="n">
         <v>1829.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>32</v>
@@ -994,69 +1048,78 @@
         <v>14.4</v>
       </c>
       <c r="I8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J8" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="J8" s="1" t="n">
+      <c r="K8" s="1" t="n">
         <v>2258.5</v>
       </c>
-      <c r="K8" s="1" t="n">
+      <c r="L8" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="M8" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="N8" s="1" t="n">
         <v>17.5</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="O8" s="1" t="n">
         <v>23.3</v>
       </c>
-      <c r="O8" s="1" t="n">
+      <c r="P8" s="1" t="n">
         <v>43.4</v>
       </c>
-      <c r="P8" s="1" t="n">
+      <c r="Q8" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="Q8" s="1" t="n">
+      <c r="R8" s="1" t="n">
         <v>15.4</v>
       </c>
-      <c r="R8" s="1" t="n">
+      <c r="S8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T8" s="1" t="n">
         <v>57.2</v>
       </c>
-      <c r="S8" s="1" t="n">
+      <c r="U8" s="1" t="n">
         <v>2000.4</v>
       </c>
-      <c r="T8" s="1" t="n">
+      <c r="V8" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="U8" s="1" t="n">
+      <c r="W8" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="V8" s="1" t="n">
+      <c r="X8" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="W8" s="1" t="n">
+      <c r="Y8" s="1" t="n">
         <v>23.6</v>
       </c>
-      <c r="X8" s="1" t="n">
+      <c r="Z8" s="1" t="n">
         <v>42.2</v>
       </c>
-      <c r="Y8" s="1" t="n">
+      <c r="AA8" s="1" t="n">
         <v>65.8</v>
       </c>
-      <c r="Z8" s="1" t="n">
+      <c r="AB8" s="1" t="n">
         <v>14.9</v>
       </c>
-      <c r="AA8" s="1" t="n">
+      <c r="AC8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD8" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="AB8" s="1" t="n">
+      <c r="AE8" s="1" t="n">
         <v>2129.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>31</v>
@@ -1080,69 +1143,78 @@
         <v>11.5</v>
       </c>
       <c r="I9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J9" s="1" t="n">
         <v>55.8</v>
       </c>
-      <c r="J9" s="1" t="n">
+      <c r="K9" s="1" t="n">
         <v>2023.2</v>
       </c>
-      <c r="K9" s="1" t="n">
+      <c r="L9" s="1" t="n">
         <v>30.5</v>
       </c>
-      <c r="L9" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="M9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="n">
         <v>16.5</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="O9" s="1" t="n">
         <v>23.1</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="P9" s="1" t="n">
         <v>43.1</v>
       </c>
-      <c r="P9" s="1" t="n">
+      <c r="Q9" s="1" t="n">
         <v>66.2</v>
       </c>
-      <c r="Q9" s="1" t="n">
+      <c r="R9" s="1" t="n">
         <v>12.9</v>
       </c>
-      <c r="R9" s="1" t="n">
+      <c r="S9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" s="1" t="n">
         <v>56.1</v>
       </c>
-      <c r="S9" s="1" t="n">
+      <c r="U9" s="1" t="n">
         <v>2043</v>
       </c>
-      <c r="T9" s="1" t="n">
+      <c r="V9" s="1" t="n">
         <v>30.8</v>
       </c>
-      <c r="U9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" s="1" t="n">
+      <c r="W9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1" t="n">
         <v>17.2</v>
       </c>
-      <c r="W9" s="1" t="n">
+      <c r="Y9" s="1" t="n">
         <v>23.4</v>
       </c>
-      <c r="X9" s="1" t="n">
+      <c r="Z9" s="1" t="n">
         <v>41.2</v>
       </c>
-      <c r="Y9" s="1" t="n">
+      <c r="AA9" s="1" t="n">
         <v>64.6</v>
       </c>
-      <c r="Z9" s="1" t="n">
+      <c r="AB9" s="1" t="n">
         <v>12.2</v>
       </c>
-      <c r="AA9" s="1" t="n">
+      <c r="AC9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD9" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="AB9" s="1" t="n">
+      <c r="AE9" s="1" t="n">
         <v>2033.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>37</v>
@@ -1166,69 +1238,78 @@
         <v>13.6</v>
       </c>
       <c r="I10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J10" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="J10" s="1" t="n">
+      <c r="K10" s="1" t="n">
         <v>2183.8</v>
       </c>
-      <c r="K10" s="1" t="n">
+      <c r="L10" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="L10" s="1" t="n">
+      <c r="M10" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="N10" s="1" t="n">
         <v>18.5</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="O10" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="O10" s="1" t="n">
+      <c r="P10" s="1" t="n">
         <v>42.3</v>
       </c>
-      <c r="P10" s="1" t="n">
+      <c r="Q10" s="1" t="n">
         <v>65.3</v>
       </c>
-      <c r="Q10" s="1" t="n">
+      <c r="R10" s="1" t="n">
         <v>15.1</v>
       </c>
-      <c r="R10" s="1" t="n">
+      <c r="S10" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T10" s="1" t="n">
         <v>56.5</v>
       </c>
-      <c r="S10" s="1" t="n">
+      <c r="U10" s="1" t="n">
         <v>2019.5</v>
       </c>
-      <c r="T10" s="1" t="n">
+      <c r="V10" s="1" t="n">
         <v>33.5</v>
       </c>
-      <c r="U10" s="1" t="n">
+      <c r="W10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="V10" s="1" t="n">
+      <c r="X10" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="W10" s="1" t="n">
+      <c r="Y10" s="1" t="n">
         <v>23.3</v>
       </c>
-      <c r="X10" s="1" t="n">
+      <c r="Z10" s="1" t="n">
         <v>40.4</v>
       </c>
-      <c r="Y10" s="1" t="n">
+      <c r="AA10" s="1" t="n">
         <v>63.8</v>
       </c>
-      <c r="Z10" s="1" t="n">
+      <c r="AB10" s="1" t="n">
         <v>14.3</v>
       </c>
-      <c r="AA10" s="1" t="n">
+      <c r="AC10" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD10" s="1" t="n">
         <v>56.7</v>
       </c>
-      <c r="AB10" s="1" t="n">
+      <c r="AE10" s="1" t="n">
         <v>2101.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>28</v>
@@ -1252,69 +1333,78 @@
         <v>14.2</v>
       </c>
       <c r="I11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J11" s="1" t="n">
         <v>56.5</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="K11" s="1" t="n">
         <v>2100.1</v>
       </c>
-      <c r="K11" s="1" t="n">
+      <c r="L11" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="L11" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="M11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="n">
         <v>14.5</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="O11" s="1" t="n">
         <v>22.5</v>
       </c>
-      <c r="O11" s="1" t="n">
+      <c r="P11" s="1" t="n">
         <v>41.9</v>
       </c>
-      <c r="P11" s="1" t="n">
+      <c r="Q11" s="1" t="n">
         <v>64.4</v>
       </c>
-      <c r="Q11" s="1" t="n">
+      <c r="R11" s="1" t="n">
         <v>15.2</v>
       </c>
-      <c r="R11" s="1" t="n">
+      <c r="S11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T11" s="1" t="n">
         <v>57.5</v>
       </c>
-      <c r="S11" s="1" t="n">
+      <c r="U11" s="1" t="n">
         <v>1947.4</v>
       </c>
-      <c r="T11" s="1" t="n">
+      <c r="V11" s="1" t="n">
         <v>26.5</v>
       </c>
-      <c r="U11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="1" t="n">
+      <c r="W11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1" t="n">
         <v>16.5</v>
       </c>
-      <c r="W11" s="1" t="n">
+      <c r="Y11" s="1" t="n">
         <v>22.9</v>
       </c>
-      <c r="X11" s="1" t="n">
+      <c r="Z11" s="1" t="n">
         <v>41.2</v>
       </c>
-      <c r="Y11" s="1" t="n">
+      <c r="AA11" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="Z11" s="1" t="n">
+      <c r="AB11" s="1" t="n">
         <v>14.7</v>
       </c>
-      <c r="AA11" s="1" t="n">
+      <c r="AC11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD11" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="AB11" s="1" t="n">
+      <c r="AE11" s="1" t="n">
         <v>2023.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>30</v>
@@ -1338,69 +1428,78 @@
         <v>13.7</v>
       </c>
       <c r="I12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J12" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="J12" s="1" t="n">
+      <c r="K12" s="1" t="n">
         <v>1865.2</v>
       </c>
-      <c r="K12" s="1" t="n">
+      <c r="L12" s="1" t="n">
         <v>29.5</v>
       </c>
-      <c r="L12" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="M12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1" t="n">
         <v>15.5</v>
       </c>
-      <c r="N12" s="1" t="n">
+      <c r="O12" s="1" t="n">
         <v>21.6</v>
       </c>
-      <c r="O12" s="1" t="n">
+      <c r="P12" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="P12" s="1" t="n">
+      <c r="Q12" s="1" t="n">
         <v>65.6</v>
       </c>
-      <c r="Q12" s="1" t="n">
+      <c r="R12" s="1" t="n">
         <v>12.1</v>
       </c>
-      <c r="R12" s="1" t="n">
+      <c r="S12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T12" s="1" t="n">
         <v>58.1</v>
       </c>
-      <c r="S12" s="1" t="n">
+      <c r="U12" s="1" t="n">
         <v>1970.8</v>
       </c>
-      <c r="T12" s="1" t="n">
+      <c r="V12" s="1" t="n">
         <v>29.8</v>
       </c>
-      <c r="U12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" s="1" t="n">
+      <c r="W12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" s="1" t="n">
         <v>17.2</v>
       </c>
-      <c r="W12" s="1" t="n">
+      <c r="Y12" s="1" t="n">
         <v>22.1</v>
       </c>
-      <c r="X12" s="1" t="n">
+      <c r="Z12" s="1" t="n">
         <v>42.8</v>
       </c>
-      <c r="Y12" s="1" t="n">
+      <c r="AA12" s="1" t="n">
         <v>64.9</v>
       </c>
-      <c r="Z12" s="1" t="n">
+      <c r="AB12" s="1" t="n">
         <v>12.9</v>
       </c>
-      <c r="AA12" s="1" t="n">
+      <c r="AC12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD12" s="1" t="n">
         <v>56.6</v>
       </c>
-      <c r="AB12" s="1" t="n">
+      <c r="AE12" s="1" t="n">
         <v>1918</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>28.5</v>
@@ -1424,69 +1523,78 @@
         <v>12</v>
       </c>
       <c r="I13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J13" s="1" t="n">
         <v>55.6</v>
       </c>
-      <c r="J13" s="1" t="n">
+      <c r="K13" s="1" t="n">
         <v>2023.6</v>
       </c>
-      <c r="K13" s="1" t="n">
+      <c r="L13" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="L13" s="1" t="n">
+      <c r="M13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M13" s="1" t="n">
+      <c r="N13" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="N13" s="1" t="n">
+      <c r="O13" s="1" t="n">
         <v>21.1</v>
       </c>
-      <c r="O13" s="1" t="n">
+      <c r="P13" s="1" t="n">
         <v>42.6</v>
       </c>
-      <c r="P13" s="1" t="n">
+      <c r="Q13" s="1" t="n">
         <v>63.8</v>
       </c>
-      <c r="Q13" s="1" t="n">
+      <c r="R13" s="1" t="n">
         <v>11.3</v>
       </c>
-      <c r="R13" s="1" t="n">
+      <c r="S13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T13" s="1" t="n">
         <v>56.8</v>
       </c>
-      <c r="S13" s="1" t="n">
+      <c r="U13" s="1" t="n">
         <v>1838.4</v>
       </c>
-      <c r="T13" s="1" t="n">
+      <c r="V13" s="1" t="n">
         <v>31.3</v>
       </c>
-      <c r="U13" s="1" t="n">
+      <c r="W13" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="V13" s="1" t="n">
+      <c r="X13" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="W13" s="1" t="n">
+      <c r="Y13" s="1" t="n">
         <v>21.8</v>
       </c>
-      <c r="X13" s="1" t="n">
+      <c r="Z13" s="1" t="n">
         <v>40.8</v>
       </c>
-      <c r="Y13" s="1" t="n">
+      <c r="AA13" s="1" t="n">
         <v>62.6</v>
       </c>
-      <c r="Z13" s="1" t="n">
+      <c r="AB13" s="1" t="n">
         <v>11.7</v>
       </c>
-      <c r="AA13" s="1" t="n">
+      <c r="AC13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD13" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="AB13" s="1" t="n">
+      <c r="AE13" s="1" t="n">
         <v>1931</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>31.5</v>
@@ -1510,69 +1618,78 @@
         <v>14.2</v>
       </c>
       <c r="I14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J14" s="1" t="n">
         <v>55.8</v>
       </c>
-      <c r="J14" s="1" t="n">
+      <c r="K14" s="1" t="n">
         <v>2033</v>
       </c>
-      <c r="K14" s="1" t="n">
+      <c r="L14" s="1" t="n">
         <v>35.5</v>
       </c>
-      <c r="L14" s="1" t="n">
+      <c r="M14" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="M14" s="1" t="n">
+      <c r="N14" s="1" t="n">
         <v>15.5</v>
       </c>
-      <c r="N14" s="1" t="n">
+      <c r="O14" s="1" t="n">
         <v>23.6</v>
       </c>
-      <c r="O14" s="1" t="n">
+      <c r="P14" s="1" t="n">
         <v>42.6</v>
       </c>
-      <c r="P14" s="1" t="n">
+      <c r="Q14" s="1" t="n">
         <v>66.2</v>
       </c>
-      <c r="Q14" s="1" t="n">
+      <c r="R14" s="1" t="n">
         <v>13.8</v>
       </c>
-      <c r="R14" s="1" t="n">
+      <c r="S14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T14" s="1" t="n">
         <v>55.3</v>
       </c>
-      <c r="S14" s="1" t="n">
+      <c r="U14" s="1" t="n">
         <v>1836.3</v>
       </c>
-      <c r="T14" s="1" t="n">
+      <c r="V14" s="1" t="n">
         <v>33.5</v>
       </c>
-      <c r="U14" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V14" s="1" t="n">
+      <c r="W14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X14" s="1" t="n">
         <v>17.5</v>
       </c>
-      <c r="W14" s="1" t="n">
+      <c r="Y14" s="1" t="n">
         <v>23.7</v>
       </c>
-      <c r="X14" s="1" t="n">
+      <c r="Z14" s="1" t="n">
         <v>41.4</v>
       </c>
-      <c r="Y14" s="1" t="n">
+      <c r="AA14" s="1" t="n">
         <v>65.1</v>
       </c>
-      <c r="Z14" s="1" t="n">
+      <c r="AB14" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="AA14" s="1" t="n">
+      <c r="AC14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD14" s="1" t="n">
         <v>55.6</v>
       </c>
-      <c r="AB14" s="1" t="n">
+      <c r="AE14" s="1" t="n">
         <v>1934.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>30</v>
@@ -1596,69 +1713,78 @@
         <v>13.3</v>
       </c>
       <c r="I15" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J15" s="1" t="n">
         <v>57.3</v>
       </c>
-      <c r="J15" s="1" t="n">
+      <c r="K15" s="1" t="n">
         <v>2008.5</v>
       </c>
-      <c r="K15" s="1" t="n">
+      <c r="L15" s="1" t="n">
         <v>35.5</v>
       </c>
-      <c r="L15" s="1" t="n">
+      <c r="M15" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="M15" s="1" t="n">
+      <c r="N15" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="N15" s="1" t="n">
+      <c r="O15" s="1" t="n">
         <v>23.1</v>
       </c>
-      <c r="O15" s="1" t="n">
+      <c r="P15" s="1" t="n">
         <v>41.6</v>
       </c>
-      <c r="P15" s="1" t="n">
+      <c r="Q15" s="1" t="n">
         <v>64.7</v>
       </c>
-      <c r="Q15" s="1" t="n">
+      <c r="R15" s="1" t="n">
         <v>13.5</v>
       </c>
-      <c r="R15" s="1" t="n">
+      <c r="S15" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T15" s="1" t="n">
         <v>57.6</v>
       </c>
-      <c r="S15" s="1" t="n">
+      <c r="U15" s="1" t="n">
         <v>1972.2</v>
       </c>
-      <c r="T15" s="1" t="n">
+      <c r="V15" s="1" t="n">
         <v>32.8</v>
       </c>
-      <c r="U15" s="1" t="n">
+      <c r="W15" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="V15" s="1" t="n">
+      <c r="X15" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="W15" s="1" t="n">
+      <c r="Y15" s="1" t="n">
         <v>23.3</v>
       </c>
-      <c r="X15" s="1" t="n">
+      <c r="Z15" s="1" t="n">
         <v>40.6</v>
       </c>
-      <c r="Y15" s="1" t="n">
+      <c r="AA15" s="1" t="n">
         <v>63.9</v>
       </c>
-      <c r="Z15" s="1" t="n">
+      <c r="AB15" s="1" t="n">
         <v>13.4</v>
       </c>
-      <c r="AA15" s="1" t="n">
+      <c r="AC15" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD15" s="1" t="n">
         <v>57.5</v>
       </c>
-      <c r="AB15" s="1" t="n">
+      <c r="AE15" s="1" t="n">
         <v>1990.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>31.5</v>
@@ -1682,69 +1808,78 @@
         <v>13.5</v>
       </c>
       <c r="I16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="n">
         <v>56.1</v>
       </c>
-      <c r="J16" s="1" t="n">
+      <c r="K16" s="1" t="n">
         <v>1696.1</v>
       </c>
-      <c r="K16" s="1" t="n">
+      <c r="L16" s="1" t="n">
         <v>31.5</v>
       </c>
-      <c r="L16" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="M16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1" t="n">
         <v>15.5</v>
       </c>
-      <c r="N16" s="1" t="n">
+      <c r="O16" s="1" t="n">
         <v>23.2</v>
       </c>
-      <c r="O16" s="1" t="n">
+      <c r="P16" s="1" t="n">
         <v>41.8</v>
       </c>
-      <c r="P16" s="1" t="n">
+      <c r="Q16" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="Q16" s="1" t="n">
+      <c r="R16" s="1" t="n">
         <v>13.5</v>
       </c>
-      <c r="R16" s="1" t="n">
+      <c r="S16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1" t="n">
         <v>57.6</v>
       </c>
-      <c r="S16" s="1" t="n">
+      <c r="U16" s="1" t="n">
         <v>1923.2</v>
       </c>
-      <c r="T16" s="1" t="n">
+      <c r="V16" s="1" t="n">
         <v>31.5</v>
       </c>
-      <c r="U16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V16" s="1" t="n">
+      <c r="W16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" s="1" t="n">
         <v>16.7</v>
       </c>
-      <c r="W16" s="1" t="n">
+      <c r="Y16" s="1" t="n">
         <v>23.5</v>
       </c>
-      <c r="X16" s="1" t="n">
+      <c r="Z16" s="1" t="n">
         <v>40.4</v>
       </c>
-      <c r="Y16" s="1" t="n">
+      <c r="AA16" s="1" t="n">
         <v>63.9</v>
       </c>
-      <c r="Z16" s="1" t="n">
+      <c r="AB16" s="1" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA16" s="1" t="n">
+      <c r="AC16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="1" t="n">
         <v>56.8</v>
       </c>
-      <c r="AB16" s="1" t="n">
+      <c r="AE16" s="1" t="n">
         <v>1809.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>33</v>
@@ -1768,69 +1903,78 @@
         <v>13.2</v>
       </c>
       <c r="I17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="J17" s="1" t="n">
+      <c r="K17" s="1" t="n">
         <v>2052</v>
       </c>
-      <c r="K17" s="1" t="n">
+      <c r="L17" s="1" t="n">
         <v>30.5</v>
       </c>
-      <c r="L17" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="M17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="N17" s="1" t="n">
+      <c r="O17" s="1" t="n">
         <v>23.4</v>
       </c>
-      <c r="O17" s="1" t="n">
+      <c r="P17" s="1" t="n">
         <v>41.1</v>
       </c>
-      <c r="P17" s="1" t="n">
+      <c r="Q17" s="1" t="n">
         <v>64.5</v>
       </c>
-      <c r="Q17" s="1" t="n">
+      <c r="R17" s="1" t="n">
         <v>12.6</v>
       </c>
-      <c r="R17" s="1" t="n">
+      <c r="S17" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T17" s="1" t="n">
         <v>56.8</v>
       </c>
-      <c r="S17" s="1" t="n">
+      <c r="U17" s="1" t="n">
         <v>1944.3</v>
       </c>
-      <c r="T17" s="1" t="n">
+      <c r="V17" s="1" t="n">
         <v>31.8</v>
       </c>
-      <c r="U17" s="1" t="n">
+      <c r="W17" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="V17" s="1" t="n">
+      <c r="X17" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="W17" s="1" t="n">
+      <c r="Y17" s="1" t="n">
         <v>23.7</v>
       </c>
-      <c r="X17" s="1" t="n">
+      <c r="Z17" s="1" t="n">
         <v>39.3</v>
       </c>
-      <c r="Y17" s="1" t="n">
+      <c r="AA17" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Z17" s="1" t="n">
+      <c r="AB17" s="1" t="n">
         <v>12.9</v>
       </c>
-      <c r="AA17" s="1" t="n">
+      <c r="AC17" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD17" s="1" t="n">
         <v>56.5</v>
       </c>
-      <c r="AB17" s="1" t="n">
+      <c r="AE17" s="1" t="n">
         <v>1998.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>34</v>
@@ -1854,69 +1998,78 @@
         <v>17</v>
       </c>
       <c r="I18" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J18" s="1" t="n">
         <v>56.4</v>
       </c>
-      <c r="J18" s="1" t="n">
+      <c r="K18" s="1" t="n">
         <v>2162.3</v>
       </c>
-      <c r="K18" s="1" t="n">
+      <c r="L18" s="1" t="n">
         <v>37.5</v>
       </c>
-      <c r="L18" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="M18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="N18" s="1" t="n">
+      <c r="O18" s="1" t="n">
         <v>21.9</v>
       </c>
-      <c r="O18" s="1" t="n">
+      <c r="P18" s="1" t="n">
         <v>44.4</v>
       </c>
-      <c r="P18" s="1" t="n">
+      <c r="Q18" s="1" t="n">
         <v>66.3</v>
       </c>
-      <c r="Q18" s="1" t="n">
+      <c r="R18" s="1" t="n">
         <v>18.1</v>
       </c>
-      <c r="R18" s="1" t="n">
+      <c r="S18" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T18" s="1" t="n">
         <v>56.8</v>
       </c>
-      <c r="S18" s="1" t="n">
+      <c r="U18" s="1" t="n">
         <v>1914.3</v>
       </c>
-      <c r="T18" s="1" t="n">
+      <c r="V18" s="1" t="n">
         <v>35.8</v>
       </c>
-      <c r="U18" s="1" t="n">
+      <c r="W18" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="V18" s="1" t="n">
+      <c r="X18" s="1" t="n">
         <v>18.5</v>
       </c>
-      <c r="W18" s="1" t="n">
+      <c r="Y18" s="1" t="n">
         <v>22.3</v>
       </c>
-      <c r="X18" s="1" t="n">
+      <c r="Z18" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="Y18" s="1" t="n">
+      <c r="AA18" s="1" t="n">
         <v>65.3</v>
       </c>
-      <c r="Z18" s="1" t="n">
+      <c r="AB18" s="1" t="n">
         <v>17.6</v>
       </c>
-      <c r="AA18" s="1" t="n">
+      <c r="AC18" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD18" s="1" t="n">
         <v>56.6</v>
       </c>
-      <c r="AB18" s="1" t="n">
+      <c r="AE18" s="1" t="n">
         <v>2030.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>33.5</v>
@@ -1940,69 +2093,78 @@
         <v>11.7</v>
       </c>
       <c r="I19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="n">
         <v>56.7</v>
       </c>
-      <c r="J19" s="1" t="n">
+      <c r="K19" s="1" t="n">
         <v>2057.3</v>
       </c>
-      <c r="K19" s="1" t="n">
+      <c r="L19" s="1" t="n">
         <v>32.5</v>
       </c>
-      <c r="L19" s="1" t="n">
+      <c r="M19" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="M19" s="1" t="n">
+      <c r="N19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="N19" s="1" t="n">
+      <c r="O19" s="1" t="n">
         <v>21.8</v>
       </c>
-      <c r="O19" s="1" t="n">
+      <c r="P19" s="1" t="n">
         <v>42.8</v>
       </c>
-      <c r="P19" s="1" t="n">
+      <c r="Q19" s="1" t="n">
         <v>64.6</v>
       </c>
-      <c r="Q19" s="1" t="n">
+      <c r="R19" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="R19" s="1" t="n">
+      <c r="S19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="S19" s="1" t="n">
+      <c r="U19" s="1" t="n">
         <v>1933.7</v>
       </c>
-      <c r="T19" s="1" t="n">
+      <c r="V19" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="U19" s="1" t="n">
+      <c r="W19" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="V19" s="1" t="n">
+      <c r="X19" s="1" t="n">
         <v>19.2</v>
       </c>
-      <c r="W19" s="1" t="n">
+      <c r="Y19" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="X19" s="1" t="n">
+      <c r="Z19" s="1" t="n">
         <v>41.3</v>
       </c>
-      <c r="Y19" s="1" t="n">
+      <c r="AA19" s="1" t="n">
         <v>63.3</v>
       </c>
-      <c r="Z19" s="1" t="n">
+      <c r="AB19" s="1" t="n">
         <v>11.4</v>
       </c>
-      <c r="AA19" s="1" t="n">
+      <c r="AC19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="1" t="n">
         <v>56.8</v>
       </c>
-      <c r="AB19" s="1" t="n">
+      <c r="AE19" s="1" t="n">
         <v>1995.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>37</v>
@@ -2026,69 +2188,78 @@
         <v>12.9</v>
       </c>
       <c r="I20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="n">
         <v>55.3</v>
       </c>
-      <c r="J20" s="1" t="n">
+      <c r="K20" s="1" t="n">
         <v>2111.1</v>
       </c>
-      <c r="K20" s="1" t="n">
+      <c r="L20" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="L20" s="1" t="n">
+      <c r="M20" s="1" t="n">
         <v>2.2</v>
       </c>
-      <c r="M20" s="1" t="n">
+      <c r="N20" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="N20" s="1" t="n">
+      <c r="O20" s="1" t="n">
         <v>21.2</v>
       </c>
-      <c r="O20" s="1" t="n">
+      <c r="P20" s="1" t="n">
         <v>43.7</v>
       </c>
-      <c r="P20" s="1" t="n">
+      <c r="Q20" s="1" t="n">
         <v>64.9</v>
       </c>
-      <c r="Q20" s="1" t="n">
+      <c r="R20" s="1" t="n">
         <v>11.5</v>
       </c>
-      <c r="R20" s="1" t="n">
+      <c r="S20" s="1" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T20" s="1" t="n">
         <v>56.8</v>
       </c>
-      <c r="S20" s="1" t="n">
+      <c r="U20" s="1" t="n">
         <v>1925</v>
       </c>
-      <c r="T20" s="1" t="n">
+      <c r="V20" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="U20" s="1" t="n">
+      <c r="W20" s="1" t="n">
         <v>1.9</v>
       </c>
-      <c r="V20" s="1" t="n">
+      <c r="X20" s="1" t="n">
         <v>23.2</v>
       </c>
-      <c r="W20" s="1" t="n">
+      <c r="Y20" s="1" t="n">
         <v>21.4</v>
       </c>
-      <c r="X20" s="1" t="n">
+      <c r="Z20" s="1" t="n">
         <v>42.3</v>
       </c>
-      <c r="Y20" s="1" t="n">
+      <c r="AA20" s="1" t="n">
         <v>63.8</v>
       </c>
-      <c r="Z20" s="1" t="n">
+      <c r="AB20" s="1" t="n">
         <v>12.2</v>
       </c>
-      <c r="AA20" s="1" t="n">
+      <c r="AC20" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD20" s="1" t="n">
         <v>56.1</v>
       </c>
-      <c r="AB20" s="1" t="n">
+      <c r="AE20" s="1" t="n">
         <v>2018.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>32</v>
@@ -2112,69 +2283,78 @@
         <v>14.9</v>
       </c>
       <c r="I21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="J21" s="1" t="n">
+      <c r="K21" s="1" t="n">
         <v>2061.6</v>
       </c>
-      <c r="K21" s="1" t="n">
+      <c r="L21" s="1" t="n">
         <v>42.5</v>
       </c>
-      <c r="L21" s="1" t="n">
-        <v>1.5</v>
-      </c>
       <c r="M21" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N21" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="N21" s="1" t="n">
+      <c r="O21" s="1" t="n">
         <v>22.9</v>
       </c>
-      <c r="O21" s="1" t="n">
+      <c r="P21" s="1" t="n">
         <v>40.8</v>
       </c>
-      <c r="P21" s="1" t="n">
+      <c r="Q21" s="1" t="n">
         <v>63.8</v>
       </c>
-      <c r="Q21" s="1" t="n">
+      <c r="R21" s="1" t="n">
         <v>13.2</v>
       </c>
-      <c r="R21" s="1" t="n">
+      <c r="S21" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T21" s="1" t="n">
         <v>58.2</v>
       </c>
-      <c r="S21" s="1" t="n">
+      <c r="U21" s="1" t="n">
         <v>1914.7</v>
       </c>
-      <c r="T21" s="1" t="n">
+      <c r="V21" s="1" t="n">
         <v>37.3</v>
       </c>
-      <c r="U21" s="1" t="n">
+      <c r="W21" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="V21" s="1" t="n">
+      <c r="X21" s="1" t="n">
         <v>24.5</v>
       </c>
-      <c r="W21" s="1" t="n">
+      <c r="Y21" s="1" t="n">
         <v>23.2</v>
       </c>
-      <c r="X21" s="1" t="n">
+      <c r="Z21" s="1" t="n">
         <v>39.8</v>
       </c>
-      <c r="Y21" s="1" t="n">
+      <c r="AA21" s="1" t="n">
         <v>62.9</v>
       </c>
-      <c r="Z21" s="1" t="n">
+      <c r="AB21" s="1" t="n">
         <v>14.1</v>
       </c>
-      <c r="AA21" s="1" t="n">
+      <c r="AC21" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD21" s="1" t="n">
         <v>58.1</v>
       </c>
-      <c r="AB21" s="1" t="n">
+      <c r="AE21" s="1" t="n">
         <v>1988.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>33</v>
@@ -2198,69 +2378,78 @@
         <v>12.3</v>
       </c>
       <c r="I22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="n">
         <v>57.4</v>
       </c>
-      <c r="J22" s="1" t="n">
+      <c r="K22" s="1" t="n">
         <v>2010.4</v>
       </c>
-      <c r="K22" s="1" t="n">
+      <c r="L22" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="L22" s="1" t="n">
+      <c r="M22" s="1" t="n">
         <v>2.7</v>
       </c>
-      <c r="M22" s="1" t="n">
+      <c r="N22" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="N22" s="1" t="n">
+      <c r="O22" s="1" t="n">
         <v>21.6</v>
       </c>
-      <c r="O22" s="1" t="n">
+      <c r="P22" s="1" t="n">
         <v>42.1</v>
       </c>
-      <c r="P22" s="1" t="n">
+      <c r="Q22" s="1" t="n">
         <v>63.6</v>
       </c>
-      <c r="Q22" s="1" t="n">
+      <c r="R22" s="1" t="n">
         <v>10.3</v>
       </c>
-      <c r="R22" s="1" t="n">
+      <c r="S22" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T22" s="1" t="n">
         <v>58.2</v>
       </c>
-      <c r="S22" s="1" t="n">
+      <c r="U22" s="1" t="n">
         <v>1546.4</v>
       </c>
-      <c r="T22" s="1" t="n">
+      <c r="V22" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="U22" s="1" t="n">
+      <c r="W22" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="V22" s="1" t="n">
+      <c r="X22" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="W22" s="1" t="n">
+      <c r="Y22" s="1" t="n">
         <v>21.9</v>
       </c>
-      <c r="X22" s="1" t="n">
+      <c r="Z22" s="1" t="n">
         <v>40.4</v>
       </c>
-      <c r="Y22" s="1" t="n">
+      <c r="AA22" s="1" t="n">
         <v>62.3</v>
       </c>
-      <c r="Z22" s="1" t="n">
+      <c r="AB22" s="1" t="n">
         <v>11.3</v>
       </c>
-      <c r="AA22" s="1" t="n">
+      <c r="AC22" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD22" s="1" t="n">
         <v>57.8</v>
       </c>
-      <c r="AB22" s="1" t="n">
+      <c r="AE22" s="1" t="n">
         <v>1778.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>35</v>
@@ -2284,71 +2473,80 @@
         <v>12.3</v>
       </c>
       <c r="I23" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J23" s="1" t="n">
         <v>57.8</v>
       </c>
-      <c r="J23" s="1" t="n">
+      <c r="K23" s="1" t="n">
         <v>2035.1</v>
       </c>
-      <c r="K23" s="1" t="n">
+      <c r="L23" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="L23" s="1" t="n">
+      <c r="M23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M23" s="1" t="n">
+      <c r="N23" s="1" t="n">
         <v>17.5</v>
       </c>
-      <c r="N23" s="1" t="n">
+      <c r="O23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="O23" s="1" t="n">
+      <c r="P23" s="1" t="n">
         <v>44.5</v>
       </c>
-      <c r="P23" s="1" t="n">
+      <c r="Q23" s="1" t="n">
         <v>65.4</v>
       </c>
-      <c r="Q23" s="1" t="n">
+      <c r="R23" s="1" t="n">
         <v>10.3</v>
       </c>
-      <c r="R23" s="1" t="n">
+      <c r="S23" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T23" s="1" t="n">
         <v>57.7</v>
       </c>
-      <c r="S23" s="1" t="n">
+      <c r="U23" s="1" t="n">
         <v>1528.6</v>
       </c>
-      <c r="T23" s="1" t="n">
+      <c r="V23" s="1" t="n">
         <v>38.5</v>
       </c>
-      <c r="U23" s="1" t="n">
+      <c r="W23" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="V23" s="1" t="n">
+      <c r="X23" s="1" t="n">
         <v>18.5</v>
       </c>
-      <c r="W23" s="1" t="n">
+      <c r="Y23" s="1" t="n">
         <v>21.4</v>
       </c>
-      <c r="X23" s="1" t="n">
+      <c r="Z23" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="Y23" s="1" t="n">
+      <c r="AA23" s="1" t="n">
         <v>64.4</v>
       </c>
-      <c r="Z23" s="1" t="n">
+      <c r="AB23" s="1" t="n">
         <v>11.4</v>
       </c>
-      <c r="AA23" s="1" t="n">
+      <c r="AC23" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD23" s="1" t="n">
         <v>57.8</v>
       </c>
-      <c r="AB23" s="1" t="n">
+      <c r="AE23" s="1" t="n">
         <v>1781.8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="T2:AB2"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:U2"/>
+    <mergeCell ref="V2:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
